--- a/CSC3510 S2021/Lectures/GettingStartedNodeJsColorConverter.xlsx
+++ b/CSC3510 S2021/Lectures/GettingStartedNodeJsColorConverter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Getting going" sheetId="1" r:id="rId1"/>
@@ -1379,10 +1379,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="10764485" cy="1530997"/>
     <xdr:sp macro="" textlink="">
@@ -1392,7 +1392,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1581150" y="476250"/>
+          <a:off x="533400" y="209550"/>
           <a:ext cx="10764485" cy="1530997"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1747,16 +1747,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>217600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>18571</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>84250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47146</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1773,7 +1773,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="2476500"/>
+          <a:off x="476250" y="2314575"/>
           <a:ext cx="11800000" cy="3828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12524,8 +12524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12539,8 +12539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="O95" sqref="O95"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12554,7 +12554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -12586,8 +12586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S70" sqref="S70"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
